--- a/Jogos_do_Dia/2023-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="G2" t="n">
-        <v>2.65</v>
+        <v>3.02</v>
       </c>
       <c r="H2" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I2" t="n">
         <v>1.09</v>
@@ -653,10 +653,10 @@
         <v>2.65</v>
       </c>
       <c r="M2" t="n">
-        <v>2.29</v>
+        <v>2.45</v>
       </c>
       <c r="N2" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="O2" t="n">
         <v>1.5</v>
@@ -716,7 +716,7 @@
         <v>2.8</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="3">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.78</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>1.12</v>
@@ -757,10 +757,10 @@
         <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M3" t="n">
         <v>2.49</v>
@@ -814,7 +814,7 @@
         <v>2.58</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE3" t="n">
         <v>1.55</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>44937.5</v>
+        <v>44937.58333333334</v>
       </c>
       <c r="C4" t="n">
         <v>13</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.8</v>
+        <v>3.53</v>
       </c>
       <c r="G4" t="n">
-        <v>2.85</v>
+        <v>2.98</v>
       </c>
       <c r="H4" t="n">
-        <v>1.93</v>
+        <v>2.11</v>
       </c>
       <c r="I4" t="n">
         <v>1.07</v>
@@ -873,10 +873,10 @@
         <v>2.9</v>
       </c>
       <c r="M4" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="N4" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="O4" t="n">
         <v>1.42</v>
@@ -915,25 +915,25 @@
         <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.7</v>
+        <v>3.52</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.22</v>
       </c>
       <c r="H5" t="n">
-        <v>1.9</v>
+        <v>2.13</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>3.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="N5" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1025,28 +1025,28 @@
         <v>3.34</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="6">
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.86</v>
+        <v>2.71</v>
       </c>
       <c r="G6" t="n">
-        <v>3.24</v>
+        <v>3.14</v>
       </c>
       <c r="H6" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1093,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.48</v>
+        <v>2.71</v>
       </c>
       <c r="G7" t="n">
-        <v>3.5</v>
+        <v>3.32</v>
       </c>
       <c r="H7" t="n">
-        <v>2.74</v>
+        <v>2.33</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1206,7 +1206,7 @@
         <v>1.83</v>
       </c>
       <c r="N7" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.38</v>
+        <v>4.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.82</v>
+        <v>3.48</v>
       </c>
       <c r="H8" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1.82</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="G9" t="n">
         <v>3.48</v>
       </c>
-      <c r="G9" t="n">
-        <v>3.72</v>
-      </c>
       <c r="H9" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="I9" t="n">
         <v>1.03</v>
@@ -1423,10 +1423,10 @@
         <v>3.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="N9" t="n">
-        <v>2.13</v>
+        <v>2.1</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.82</v>
+        <v>3.37</v>
       </c>
       <c r="G10" t="n">
-        <v>3.78</v>
+        <v>3.46</v>
       </c>
       <c r="H10" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="N10" t="n">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.94</v>
+        <v>3.17</v>
       </c>
       <c r="G11" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="H11" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1643,10 +1643,10 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="N11" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="G12" t="n">
-        <v>3.72</v>
+        <v>3.49</v>
       </c>
       <c r="H12" t="n">
-        <v>4.38</v>
+        <v>4.04</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="N12" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1845,10 +1845,10 @@
         <v>1.08</v>
       </c>
       <c r="G13" t="n">
-        <v>11.5</v>
+        <v>8.83</v>
       </c>
       <c r="H13" t="n">
-        <v>22</v>
+        <v>17.59</v>
       </c>
       <c r="I13" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>9.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="N13" t="n">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.14</v>
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="G14" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="H14" t="n">
-        <v>2.17</v>
+        <v>1.99</v>
       </c>
       <c r="I14" t="n">
         <v>1.05</v>
@@ -1973,10 +1973,10 @@
         <v>3.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="N14" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>4.38</v>
+        <v>3.88</v>
       </c>
       <c r="G15" t="n">
-        <v>3.88</v>
+        <v>3.65</v>
       </c>
       <c r="H15" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2083,10 +2083,10 @@
         <v>4.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="N15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>

--- a/Jogos_do_Dia/2023-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-01-11_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>3.02</v>
+        <v>3.1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="I2" t="n">
         <v>1.09</v>
@@ -647,10 +647,10 @@
         <v>7.5</v>
       </c>
       <c r="K2" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="L2" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="M2" t="n">
         <v>2.45</v>
@@ -680,10 +680,10 @@
         <v>1.22</v>
       </c>
       <c r="V2" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="W2" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="X2" t="n">
         <v>0.93</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.29</v>
+        <v>2.5</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="I3" t="n">
         <v>1.12</v>
@@ -757,16 +757,16 @@
         <v>5.3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="L3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M3" t="n">
-        <v>2.49</v>
+        <v>2.65</v>
       </c>
       <c r="N3" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="O3" t="n">
         <v>1.56</v>
@@ -790,10 +790,10 @@
         <v>1.57</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="W3" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="X3" t="n">
         <v>1.41</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.53</v>
+        <v>3.55</v>
       </c>
       <c r="G4" t="n">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="H4" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="I4" t="n">
         <v>1.07</v>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3.52</v>
+        <v>3.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3.22</v>
+        <v>3.2</v>
       </c>
       <c r="H5" t="n">
-        <v>2.13</v>
+        <v>1.9</v>
       </c>
       <c r="I5" t="n">
         <v>1.04</v>
@@ -983,10 +983,10 @@
         <v>3.3</v>
       </c>
       <c r="M5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="N5" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="G6" t="n">
-        <v>3.14</v>
+        <v>3.2</v>
       </c>
       <c r="H6" t="n">
-        <v>2.43</v>
+        <v>2.44</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1093,10 +1093,10 @@
         <v>2.8</v>
       </c>
       <c r="M6" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="N6" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
         <v>1.04</v>
@@ -1203,10 +1203,10 @@
         <v>3.8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="O7" t="n">
         <v>1.36</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="H8" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="N8" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.33</v>
+        <v>3.4</v>
       </c>
       <c r="G9" t="n">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="H9" t="n">
         <v>1.95</v>
@@ -1423,10 +1423,10 @@
         <v>3.8</v>
       </c>
       <c r="M9" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="N9" t="n">
-        <v>2.1</v>
+        <v>1.97</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.46</v>
+        <v>3.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="I10" t="n">
         <v>1.04</v>
@@ -1533,10 +1533,10 @@
         <v>3.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="N10" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.36</v>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="G11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="I11" t="n">
         <v>1.03</v>
@@ -1643,10 +1643,10 @@
         <v>4.33</v>
       </c>
       <c r="M11" t="n">
-        <v>1.75</v>
+        <v>1.61</v>
       </c>
       <c r="N11" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="O11" t="n">
         <v>1.33</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="G12" t="n">
-        <v>3.49</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>4.04</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
         <v>1.05</v>
@@ -1753,10 +1753,10 @@
         <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="N12" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="O12" t="n">
         <v>1.36</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="G13" t="n">
-        <v>8.83</v>
+        <v>10.5</v>
       </c>
       <c r="H13" t="n">
-        <v>17.59</v>
+        <v>22</v>
       </c>
       <c r="I13" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>9.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="N13" t="n">
-        <v>4.2</v>
+        <v>4.23</v>
       </c>
       <c r="O13" t="n">
         <v>1.14</v>
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.32</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.37</v>
+        <v>3.45</v>
       </c>
       <c r="H14" t="n">
         <v>1.99</v>
@@ -1973,10 +1973,10 @@
         <v>3.4</v>
       </c>
       <c r="M14" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="N14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="O14" t="n">
         <v>1.4</v>
@@ -2062,13 +2062,13 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.88</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="H15" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="I15" t="n">
         <v>1.03</v>
@@ -2083,10 +2083,10 @@
         <v>4.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="N15" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="O15" t="n">
         <v>1.33</v>
